--- a/hw09/HW09.xlsx
+++ b/hw09/HW09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adairdg\Documents\Classes\Embedded Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B5273A-BB13-4E53-8E69-B612591B4283}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A4AD1A-E0A2-4E8A-8EFC-2694DCBA54B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{328BE8DB-BE57-456C-ADF0-89A9EAB52F03}"/>
   </bookViews>
@@ -395,22 +395,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3230880</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CCC9D2-8A3E-41DE-80AB-12D118CF7D30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CEEFC1-827E-4207-97F1-ED7A2CAE25D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -431,9 +431,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2887980" y="12329160"/>
-          <a:ext cx="6339840" cy="3208020"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2910840" y="12336780"/>
+          <a:ext cx="6393180" cy="4188254"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4A9865-3A1D-473C-A22B-19D0D2D6DC3B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>

--- a/hw09/HW09.xlsx
+++ b/hw09/HW09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adairdg\Documents\Classes\Embedded Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A4AD1A-E0A2-4E8A-8EFC-2694DCBA54B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E7E514-B005-45FC-B0E3-5BCF8B45F4A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{328BE8DB-BE57-456C-ADF0-89A9EAB52F03}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Part #</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -745,7 +748,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,10 +837,10 @@
         <v>5.9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>

--- a/hw09/HW09.xlsx
+++ b/hw09/HW09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adairdg\Documents\Classes\Embedded Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E7E514-B005-45FC-B0E3-5BCF8B45F4A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC5652-663D-49D6-9A4B-E1A9FE3B65B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{328BE8DB-BE57-456C-ADF0-89A9EAB52F03}"/>
   </bookViews>
